--- a/source/statisticalTests.xlsx
+++ b/source/statisticalTests.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AD87EE3-CF97-48AF-97DC-C28FDCB2176E}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F8D6CA9-8742-4792-9FD0-ED337B483FFA}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -765,15 +765,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="12" style="4" customWidth="1"/>
     <col min="2" max="2" width="24.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="64" style="1" customWidth="1"/>
     <col min="4" max="4" width="4.28515625" style="4" customWidth="1"/>
     <col min="5" max="5" width="10.5703125" style="4" customWidth="1"/>
     <col min="6" max="6" width="11.42578125" style="4" customWidth="1"/>
@@ -828,75 +828,102 @@
         <v>57</v>
       </c>
     </row>
-    <row r="2" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D2" s="4">
-        <v>2</v>
-      </c>
-      <c r="G2" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H2" s="6" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="D2" s="8">
+        <v>1</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>86</v>
+      </c>
+      <c r="I2" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="M2" s="5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="D3" s="4">
-        <v>2</v>
+        <v>25</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="4" t="s">
+        <v>8</v>
       </c>
       <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H3" s="6" t="s">
-        <v>53</v>
+        <v>62</v>
+      </c>
+      <c r="I3" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="J3" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="K3" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="L3" s="4" t="s">
+        <v>34</v>
       </c>
       <c r="M3" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>49</v>
+        <v>7</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>52</v>
+        <v>19</v>
       </c>
       <c r="D4" s="4">
-        <v>2</v>
-      </c>
-      <c r="G4" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="6" t="s">
-        <v>53</v>
+        <v>1</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="5" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>105</v>
+        <v>49</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>102</v>
+        <v>52</v>
+      </c>
+      <c r="D5" s="4">
+        <v>2</v>
       </c>
       <c r="G5" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H5" s="6" t="s">
-        <v>103</v>
-      </c>
-      <c r="M5" s="5" t="s">
-        <v>104</v>
+        <v>53</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -904,118 +931,85 @@
         <v>60</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="D6" s="4">
-        <v>2</v>
-      </c>
-      <c r="E6" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F6" s="4" t="s">
-        <v>37</v>
+        <v>20</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>43</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>41</v>
+        <v>24</v>
       </c>
       <c r="H6" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="M6" s="5" t="s">
-        <v>98</v>
+      <c r="I6" s="5" t="s">
+        <v>89</v>
+      </c>
+      <c r="J6" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="K6" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="L6" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>120</v>
+        <v>112</v>
       </c>
       <c r="D7" s="4">
-        <v>2</v>
-      </c>
-      <c r="E7" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F7" s="4" t="s">
-        <v>37</v>
+        <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" s="5" t="s">
-        <v>95</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>96</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D8" s="4">
         <v>2</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>4</v>
+        <v>24</v>
       </c>
       <c r="H8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" s="5" t="s">
-        <v>93</v>
-      </c>
-      <c r="J8" s="4" t="s">
-        <v>97</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>60</v>
+        <v>7</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="D9" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="G9" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H9" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="I9" s="5" t="s">
-        <v>89</v>
-      </c>
-      <c r="J9" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="K9" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="L9" s="4" t="s">
-        <v>92</v>
+      <c r="D9" s="4">
+        <v>2</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="4" t="s">
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
@@ -1023,61 +1017,79 @@
         <v>7</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D10" s="4">
-        <v>1</v>
-      </c>
-      <c r="F10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="G10" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="6" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D11" s="4">
+        <v>2</v>
+      </c>
+      <c r="G11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H11" s="6" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="G12" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H12" s="6" t="s">
+        <v>103</v>
+      </c>
+      <c r="M12" s="5" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A11" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="D11" s="4">
-        <v>1</v>
-      </c>
-      <c r="F11" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="4">
-        <v>1</v>
-      </c>
-      <c r="F12" s="4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
-      <c r="A13" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>107</v>
-      </c>
-      <c r="D13" s="4">
-        <v>1</v>
-      </c>
-      <c r="F13" s="4" t="s">
-        <v>8</v>
+      <c r="G13" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="H13" s="6" t="s">
-        <v>64</v>
+        <v>62</v>
+      </c>
+      <c r="I13" s="5" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
@@ -1085,65 +1097,86 @@
         <v>7</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>10</v>
+        <v>15</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>108</v>
       </c>
       <c r="D14" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>13</v>
       </c>
       <c r="F14" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H14" s="7" t="s">
-        <v>100</v>
+      <c r="G14" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H14" s="6" t="s">
+        <v>62</v>
       </c>
       <c r="I14" s="5" t="s">
-        <v>99</v>
-      </c>
-      <c r="K14" s="8" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+      <c r="J14" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="K14" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="L14" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="M14" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>7</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C15" s="1" t="s">
-        <v>112</v>
+        <v>51</v>
       </c>
       <c r="D15" s="4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
+      </c>
+      <c r="H15" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" s="5" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>114</v>
-      </c>
-      <c r="D16" s="8">
-        <v>1</v>
-      </c>
-      <c r="H16" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="I16" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="K16" s="4" t="s">
-        <v>87</v>
+        <v>94</v>
+      </c>
+      <c r="D16" s="4">
+        <v>2</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="G16" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="M16" s="5" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
@@ -1151,30 +1184,21 @@
         <v>7</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>69</v>
+        <v>17</v>
       </c>
       <c r="D17" s="4">
-        <v>2</v>
-      </c>
-      <c r="E17" s="4" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="F17" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="G17" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="6" t="s">
-        <v>62</v>
-      </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>22</v>
+        <v>17</v>
       </c>
       <c r="D18" s="4">
         <v>2</v>
@@ -1188,19 +1212,22 @@
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>17</v>
       </c>
       <c r="D19" s="4">
-        <v>2</v>
-      </c>
-      <c r="E19" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F19" s="4" t="s">
-        <v>16</v>
+        <v>1</v>
+      </c>
+      <c r="G19" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H19" s="6" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
@@ -1208,60 +1235,60 @@
         <v>7</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>108</v>
-      </c>
-      <c r="D20" s="4">
-        <v>2</v>
+        <v>119</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>30</v>
       </c>
       <c r="E20" s="4" t="s">
         <v>13</v>
       </c>
       <c r="F20" s="4" t="s">
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H20" s="6" t="s">
-        <v>62</v>
+        <v>78</v>
       </c>
       <c r="I20" s="5" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="J20" s="4" t="s">
-        <v>21</v>
+        <v>80</v>
       </c>
       <c r="K20" s="4" t="s">
-        <v>66</v>
+        <v>33</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>67</v>
+        <v>34</v>
       </c>
       <c r="M20" s="5" t="s">
-        <v>68</v>
+        <v>81</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" s="4" t="s">
-        <v>7</v>
+        <v>58</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>10</v>
+        <v>59</v>
+      </c>
+      <c r="C21" s="1" t="s">
+        <v>111</v>
       </c>
       <c r="D21" s="4">
         <v>2</v>
       </c>
-      <c r="E21" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F21" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="K21" s="8" t="s">
-        <v>29</v>
+      <c r="G21" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
@@ -1269,10 +1296,7 @@
         <v>7</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C22" s="1" t="s">
-        <v>113</v>
+        <v>69</v>
       </c>
       <c r="D22" s="4">
         <v>2</v>
@@ -1280,51 +1304,49 @@
       <c r="E22" s="4" t="s">
         <v>13</v>
       </c>
+      <c r="F22" s="4" t="s">
+        <v>16</v>
+      </c>
       <c r="G22" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H22" s="6" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A23" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C23" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="D23" s="4">
-        <v>2</v>
-      </c>
-      <c r="E23" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="G23" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H23" s="6" t="s">
         <v>62</v>
       </c>
-      <c r="M23" s="5" t="s">
-        <v>74</v>
-      </c>
+    </row>
+    <row r="23" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" s="9"/>
+      <c r="D23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E23" s="8"/>
+      <c r="F23" s="8"/>
+      <c r="G23" s="8"/>
+      <c r="H23" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="I23" s="10"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="L23" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M23" s="10"/>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>118</v>
+        <v>23</v>
       </c>
       <c r="D24" s="4">
         <v>2</v>
@@ -1332,8 +1354,8 @@
       <c r="E24" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="F24" s="4" t="s">
-        <v>16</v>
+      <c r="G24" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="H24" s="6" t="s">
         <v>63</v>
@@ -1344,13 +1366,13 @@
         <v>7</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="D25" s="4">
         <v>2</v>
       </c>
       <c r="E25" s="4" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F25" s="4" t="s">
         <v>16</v>
@@ -1399,10 +1421,13 @@
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>23</v>
+        <v>2</v>
+      </c>
+      <c r="C27" s="1" t="s">
+        <v>117</v>
       </c>
       <c r="D27" s="4">
         <v>2</v>
@@ -1410,11 +1435,20 @@
       <c r="E27" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F27" s="4" t="s">
+        <v>8</v>
+      </c>
       <c r="G27" s="4" t="s">
-        <v>24</v>
+        <v>4</v>
       </c>
       <c r="H27" s="6" t="s">
-        <v>63</v>
+        <v>48</v>
+      </c>
+      <c r="I27" s="5" t="s">
+        <v>93</v>
+      </c>
+      <c r="J27" s="4" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
@@ -1422,31 +1456,31 @@
         <v>7</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="D28" s="4" t="s">
         <v>30</v>
       </c>
       <c r="E28" s="4" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F28" s="4" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="G28" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H28" s="6" t="s">
-        <v>78</v>
+        <v>62</v>
       </c>
       <c r="I28" s="5" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="J28" s="4" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K28" s="4" t="s">
         <v>33</v>
@@ -1454,75 +1488,48 @@
       <c r="L28" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="M28" s="5" t="s">
-        <v>81</v>
-      </c>
     </row>
     <row r="29" spans="1:13" s="8" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A29" s="4" t="s">
         <v>7</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>109</v>
-      </c>
-      <c r="D29" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E29" s="4" t="s">
-        <v>13</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C29" s="1"/>
+      <c r="D29" s="4">
+        <v>1</v>
+      </c>
+      <c r="E29" s="4"/>
       <c r="F29" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G29" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H29" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I29" s="5" t="s">
-        <v>75</v>
-      </c>
-      <c r="J29" s="4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K29" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L29" s="4" t="s">
-        <v>34</v>
-      </c>
-      <c r="M29" s="5" t="s">
-        <v>77</v>
-      </c>
+        <v>16</v>
+      </c>
+      <c r="G29" s="4"/>
+      <c r="H29" s="6"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="4"/>
+      <c r="K29" s="4"/>
+      <c r="L29" s="4"/>
+      <c r="M29" s="5"/>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" s="4" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="4" t="s">
-        <v>30</v>
-      </c>
-      <c r="E30" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F30" s="4" t="s">
-        <v>16</v>
+        <v>54</v>
+      </c>
+      <c r="D30" s="4">
+        <v>1</v>
       </c>
       <c r="G30" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H30" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I30" s="5" t="s">
-        <v>84</v>
+        <v>55</v>
+      </c>
+      <c r="M30" s="5" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
@@ -1530,154 +1537,152 @@
         <v>7</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>44</v>
+        <v>27</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="D31" s="4" t="s">
-        <v>30</v>
+        <v>118</v>
+      </c>
+      <c r="D31" s="4">
+        <v>2</v>
       </c>
       <c r="E31" s="4" t="s">
         <v>12</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G31" s="4" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="H31" s="6" t="s">
-        <v>62</v>
-      </c>
-      <c r="I31" s="5" t="s">
-        <v>82</v>
-      </c>
-      <c r="J31" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="K31" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="L31" s="4" t="s">
-        <v>34</v>
+        <v>63</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" s="4" t="s">
-        <v>7</v>
+        <v>60</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D32" s="4" t="s">
-        <v>30</v>
+        <v>3</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="D32" s="4">
+        <v>2</v>
       </c>
       <c r="E32" s="4" t="s">
         <v>12</v>
       </c>
+      <c r="F32" s="4" t="s">
+        <v>37</v>
+      </c>
       <c r="G32" s="4" t="s">
-        <v>24</v>
+        <v>41</v>
       </c>
       <c r="H32" s="6" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13" ht="33.75" x14ac:dyDescent="0.25">
-      <c r="A33" s="8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B33" s="9" t="s">
-        <v>32</v>
-      </c>
-      <c r="C33" s="9"/>
-      <c r="D33" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="E33" s="8"/>
-      <c r="F33" s="8"/>
-      <c r="G33" s="8"/>
-      <c r="H33" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="I33" s="10"/>
-      <c r="J33" s="8"/>
-      <c r="K33" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L33" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="M33" s="10"/>
+        <v>47</v>
+      </c>
+      <c r="I32" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="J32" s="4" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" ht="22.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="D33" s="4">
+        <v>1</v>
+      </c>
+      <c r="F33" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>64</v>
+      </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>26</v>
+      </c>
+      <c r="C34" s="1" t="s">
+        <v>116</v>
       </c>
       <c r="D34" s="4">
-        <v>1</v>
+        <v>2</v>
+      </c>
+      <c r="E34" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="G34" s="4" t="s">
         <v>41</v>
       </c>
       <c r="H34" s="6" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="M34" s="5" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" s="4" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="D35" s="4">
         <v>1</v>
       </c>
-      <c r="G35" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H35" s="6" t="s">
-        <v>55</v>
-      </c>
-      <c r="M35" s="5" t="s">
-        <v>56</v>
+      <c r="F35" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="I35" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="K35" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" s="4" t="s">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="C36" s="1" t="s">
-        <v>111</v>
+        <v>10</v>
       </c>
       <c r="D36" s="4">
         <v>2</v>
       </c>
-      <c r="G36" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H36" s="5" t="s">
-        <v>61</v>
+      <c r="E36" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="K36" s="8" t="s">
+        <v>29</v>
       </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:M36" xr:uid="{2A4B589B-1D68-42B1-9FB1-0FCE10436C23}"/>
   <sortState ref="A2:M36">
-    <sortCondition ref="A2:A36"/>
-    <sortCondition ref="D2:D36"/>
-    <sortCondition ref="E2:E36"/>
-    <sortCondition ref="F2:F36"/>
-    <sortCondition ref="G2:G36"/>
+    <sortCondition ref="B2:B36"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
